--- a/Choucair TestCase Reto.xlsx
+++ b/Choucair TestCase Reto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Downloads\Reto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BE3BE5A-E503-4743-B44B-DDB331E45CDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6C692B-5669-4015-ACE0-BC885E6E1581}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16DC62CC-FB8A-477E-AE2A-FF4058E668AE}"/>
   </bookViews>
@@ -76,12 +76,6 @@
 ilustrativo en donde cada selección lo redireccione al curso correspondiente </t>
   </si>
   <si>
-    <t>HU001_1</t>
-  </si>
-  <si>
-    <t>Yo como Asociado quiero ingresar a la plataforma Choucair Academy para visualizar los cursos existentes</t>
-  </si>
-  <si>
     <t>1. El usuario debe tener credenciales activas para el logueo</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
   </si>
   <si>
     <t>HU001_2</t>
-  </si>
-  <si>
-    <t>Yo como Asociado quiero ingresar a la plataforma con credenciales aleatorias</t>
   </si>
   <si>
     <t>1. El usuario no tendra credenciales activas</t>
@@ -170,6 +161,15 @@
   </si>
   <si>
     <t xml:space="preserve">Envio exitoso se evidencia </t>
+  </si>
+  <si>
+    <t>HU001_TC1</t>
+  </si>
+  <si>
+    <t>Visualizacion de los cursos</t>
+  </si>
+  <si>
+    <t>Visualizacion de los cursos no matriculados</t>
   </si>
 </sst>
 </file>
@@ -277,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -300,15 +300,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -628,15 +625,15 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="5" max="5" width="23.21875" customWidth="1"/>
     <col min="6" max="6" width="21.109375" customWidth="1"/>
     <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
@@ -670,22 +667,22 @@
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" ht="178.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
@@ -694,22 +691,22 @@
     </row>
     <row r="3" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
@@ -718,97 +715,97 @@
     </row>
     <row r="4" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -833,10 +830,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
@@ -867,7 +864,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
